--- a/예측 코드- Python/예측 코드- Python/최종데이터.xlsx
+++ b/예측 코드- Python/예측 코드- Python/최종데이터.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjaud\OneDrive\바탕 화면\졸업작품\데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12월 전자정부기반 e커머스 융합 sw개발자 박정은\J_plus_D\예측 코드- Python\예측 코드- Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7916435-F3AF-4F7E-AE1F-D1C7AC1A8711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="104">
   <si>
     <t>2018년 01월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,11 +338,48 @@
   <si>
     <t>2022년 01월</t>
   </si>
+  <si>
+    <t>2023년 01월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023년 02월</t>
+  </si>
+  <si>
+    <t>2023년 03월</t>
+  </si>
+  <si>
+    <t>2023년 04월</t>
+  </si>
+  <si>
+    <t>2023년 05월</t>
+  </si>
+  <si>
+    <t>2023년 06월</t>
+  </si>
+  <si>
+    <t>2023년 07월</t>
+  </si>
+  <si>
+    <t>2023년 08월</t>
+  </si>
+  <si>
+    <t>2023년 09월</t>
+  </si>
+  <si>
+    <t>2023년 10월</t>
+  </si>
+  <si>
+    <t>2023년 11월</t>
+  </si>
+  <si>
+    <t>2023년 12월</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,36 +705,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ227"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BV227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1:BJ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BJ23" sqref="BJ23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" customWidth="1"/>
-    <col min="13" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.08203125" customWidth="1"/>
-    <col min="27" max="37" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.08203125" customWidth="1"/>
-    <col min="39" max="49" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="12.08203125" customWidth="1"/>
-    <col min="51" max="61" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.08203125" customWidth="1"/>
+    <col min="13" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="25" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.125" customWidth="1"/>
+    <col min="27" max="37" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.125" customWidth="1"/>
+    <col min="39" max="49" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.125" customWidth="1"/>
+    <col min="51" max="61" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -885,8 +921,44 @@
       <c r="BJ1" t="s">
         <v>80</v>
       </c>
+      <c r="BK1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1146,7 @@
         <v>4059969</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1334,7 @@
         <v>1834593</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1522,7 @@
         <v>591023</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1638,7 +1710,7 @@
         <v>1492713</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1898,7 @@
         <v>117649</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2086,7 @@
         <v>1986791</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2202,7 +2274,7 @@
         <v>731544</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2390,7 +2462,7 @@
         <v>6173054</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2650,7 @@
         <v>28855693</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2838,7 @@
         <v>517765</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +3026,7 @@
         <v>3458968</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3214,7 @@
         <v>455900</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3402,7 @@
         <v>106646</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3518,7 +3590,7 @@
         <v>6189308</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3706,7 +3778,7 @@
         <v>498253</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3894,7 +3966,7 @@
         <v>206063</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -4082,7 +4154,7 @@
         <v>9471198</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -4270,7 +4342,7 @@
         <v>393818</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4458,7 +4530,7 @@
         <v>1074222</v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -4646,7 +4718,7 @@
         <v>1126306</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4828,9 +4900,11 @@
       <c r="BI22" s="3">
         <v>0</v>
       </c>
-      <c r="BJ22" s="3"/>
+      <c r="BJ22" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -5018,7 +5092,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -5204,7 +5278,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -5392,7 +5466,7 @@
         <v>599900</v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5577,7 +5651,7 @@
         <v>100094</v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -5765,7 +5839,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -5953,7 +6027,7 @@
         <v>54100</v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -6141,7 +6215,7 @@
         <v>722343</v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -6329,7 +6403,7 @@
         <v>1499231</v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6517,7 +6591,7 @@
         <v>3640751</v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -6705,7 +6779,7 @@
         <v>1071235</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -6893,7 +6967,7 @@
         <v>517793</v>
       </c>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -7081,7 +7155,7 @@
         <v>80679</v>
       </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -7269,7 +7343,7 @@
         <v>175460</v>
       </c>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -7457,7 +7531,7 @@
         <v>60180</v>
       </c>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -7645,7 +7719,7 @@
         <v>85674</v>
       </c>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7907,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -8021,7 +8095,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -8209,7 +8283,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -8397,7 +8471,7 @@
         <v>5192</v>
       </c>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -8585,7 +8659,7 @@
         <v>15360</v>
       </c>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -8773,7 +8847,7 @@
         <v>10710</v>
       </c>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -8961,7 +9035,7 @@
         <v>33197</v>
       </c>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -9149,7 +9223,7 @@
         <v>50782</v>
       </c>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -9337,7 +9411,7 @@
         <v>16947</v>
       </c>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -9525,7 +9599,7 @@
         <v>27594</v>
       </c>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -9713,7 +9787,7 @@
         <v>59123</v>
       </c>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -9901,7 +9975,7 @@
         <v>8073</v>
       </c>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -10089,7 +10163,7 @@
         <v>4431426</v>
       </c>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -10277,7 +10351,7 @@
         <v>12201554</v>
       </c>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -10465,7 +10539,7 @@
         <v>3540084</v>
       </c>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -10653,7 +10727,7 @@
         <v>2930710</v>
       </c>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -10841,7 +10915,7 @@
         <v>1408627</v>
       </c>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -11029,7 +11103,7 @@
         <v>2399241</v>
       </c>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -11217,7 +11291,7 @@
         <v>1312646</v>
       </c>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -11405,7 +11479,7 @@
         <v>4530226</v>
       </c>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -11593,7 +11667,7 @@
         <v>12777835</v>
       </c>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -11781,7 +11855,7 @@
         <v>1059138</v>
       </c>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -11969,7 +12043,7 @@
         <v>2809083</v>
       </c>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -12157,7 +12231,7 @@
         <v>3807465</v>
       </c>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -12345,7 +12419,7 @@
         <v>1880915</v>
       </c>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -12533,7 +12607,7 @@
         <v>3196428</v>
       </c>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -12721,7 +12795,7 @@
         <v>2660702</v>
       </c>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -12909,7 +12983,7 @@
         <v>2205585</v>
       </c>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -13097,7 +13171,7 @@
         <v>9708</v>
       </c>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -13285,7 +13359,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -13473,7 +13547,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -13661,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -13849,7 +13923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -14037,7 +14111,7 @@
         <v>84475</v>
       </c>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -14225,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -14413,7 +14487,7 @@
         <v>1700584</v>
       </c>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -14601,7 +14675,7 @@
         <v>7215524</v>
       </c>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -14789,7 +14863,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -14977,7 +15051,7 @@
         <v>11938434</v>
       </c>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -15165,7 +15239,7 @@
         <v>23547</v>
       </c>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -15353,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -15541,7 +15615,7 @@
         <v>12792840</v>
       </c>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -15729,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -15917,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -16105,7 +16179,7 @@
         <v>214860</v>
       </c>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -16293,7 +16367,7 @@
         <v>706515</v>
       </c>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -16481,7 +16555,7 @@
         <v>229060</v>
       </c>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -16669,7 +16743,7 @@
         <v>212693</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -16857,7 +16931,7 @@
         <v>49821</v>
       </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -17045,7 +17119,7 @@
         <v>115051</v>
       </c>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -17233,7 +17307,7 @@
         <v>84328</v>
       </c>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -17421,7 +17495,7 @@
         <v>334005</v>
       </c>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -17609,7 +17683,7 @@
         <v>1330477</v>
       </c>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -17797,7 +17871,7 @@
         <v>68319</v>
       </c>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -17985,7 +18059,7 @@
         <v>126361</v>
       </c>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -18173,7 +18247,7 @@
         <v>130425</v>
       </c>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>17</v>
       </c>
@@ -18361,7 +18435,7 @@
         <v>103085</v>
       </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>17</v>
       </c>
@@ -18549,7 +18623,7 @@
         <v>2415221</v>
       </c>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>17</v>
       </c>
@@ -18737,7 +18811,7 @@
         <v>112439</v>
       </c>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>17</v>
       </c>
@@ -18925,7 +18999,7 @@
         <v>106887</v>
       </c>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -19113,7 +19187,7 @@
         <v>7976953</v>
       </c>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -19301,7 +19375,7 @@
         <v>37867622</v>
       </c>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -19489,7 +19563,7 @@
         <v>10052778</v>
       </c>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -19677,7 +19751,7 @@
         <v>10458186</v>
       </c>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -19865,7 +19939,7 @@
         <v>5644059</v>
       </c>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -20053,7 +20127,7 @@
         <v>10055236</v>
       </c>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -20241,7 +20315,7 @@
         <v>3632871</v>
       </c>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -20429,7 +20503,7 @@
         <v>8667568</v>
       </c>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>18</v>
       </c>
@@ -20617,7 +20691,7 @@
         <v>37907706</v>
       </c>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>18</v>
       </c>
@@ -20805,7 +20879,7 @@
         <v>3147493</v>
       </c>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -20993,7 +21067,7 @@
         <v>9934155</v>
       </c>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -21181,7 +21255,7 @@
         <v>6370041</v>
       </c>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -21369,7 +21443,7 @@
         <v>6452142</v>
       </c>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -21557,7 +21631,7 @@
         <v>3869336</v>
       </c>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -21745,7 +21819,7 @@
         <v>8345285</v>
       </c>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -21933,7 +22007,7 @@
         <v>6890992</v>
       </c>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -22121,7 +22195,7 @@
         <v>7084121</v>
       </c>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -22309,7 +22383,7 @@
         <v>266907737</v>
       </c>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -22497,7 +22571,7 @@
         <v>24292518</v>
       </c>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -22685,7 +22759,7 @@
         <v>10105046</v>
       </c>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -22873,7 +22947,7 @@
         <v>28969438</v>
       </c>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -23061,7 +23135,7 @@
         <v>72196287</v>
       </c>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -23249,7 +23323,7 @@
         <v>32077240</v>
       </c>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -23437,7 +23511,7 @@
         <v>104514410</v>
       </c>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -23625,7 +23699,7 @@
         <v>305488162</v>
       </c>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -23813,7 +23887,7 @@
         <v>10833683</v>
       </c>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -24001,7 +24075,7 @@
         <v>36643437</v>
       </c>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -24189,7 +24263,7 @@
         <v>10008725</v>
       </c>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -24377,7 +24451,7 @@
         <v>8491861</v>
       </c>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -24565,7 +24639,7 @@
         <v>2894426</v>
       </c>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -24753,7 +24827,7 @@
         <v>17309164</v>
       </c>
     </row>
-    <row r="129" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -24941,7 +25015,7 @@
         <v>14443495</v>
       </c>
     </row>
-    <row r="130" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -25129,7 +25203,7 @@
         <v>644026</v>
       </c>
     </row>
-    <row r="131" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -25317,7 +25391,7 @@
         <v>1564324</v>
       </c>
     </row>
-    <row r="132" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -25505,7 +25579,7 @@
         <v>227431</v>
       </c>
     </row>
-    <row r="133" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -25693,7 +25767,7 @@
         <v>292972</v>
       </c>
     </row>
-    <row r="134" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -25881,7 +25955,7 @@
         <v>106996</v>
       </c>
     </row>
-    <row r="135" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -26069,7 +26143,7 @@
         <v>257977</v>
       </c>
     </row>
-    <row r="136" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -26257,7 +26331,7 @@
         <v>126403</v>
       </c>
     </row>
-    <row r="137" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -26445,7 +26519,7 @@
         <v>769764</v>
       </c>
     </row>
-    <row r="138" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -26633,7 +26707,7 @@
         <v>3818006</v>
       </c>
     </row>
-    <row r="139" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -26821,7 +26895,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="140" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -27009,7 +27083,7 @@
         <v>254911</v>
       </c>
     </row>
-    <row r="141" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -27197,7 +27271,7 @@
         <v>961317</v>
       </c>
     </row>
-    <row r="142" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -27385,7 +27459,7 @@
         <v>62368</v>
       </c>
     </row>
-    <row r="143" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -27573,7 +27647,7 @@
         <v>653892</v>
       </c>
     </row>
-    <row r="144" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -27761,7 +27835,7 @@
         <v>98638</v>
       </c>
     </row>
-    <row r="145" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -27949,7 +28023,7 @@
         <v>131474</v>
       </c>
     </row>
-    <row r="146" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>21</v>
       </c>
@@ -28137,7 +28211,7 @@
         <v>4858707</v>
       </c>
     </row>
-    <row r="147" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -28325,7 +28399,7 @@
         <v>21481985</v>
       </c>
     </row>
-    <row r="148" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>21</v>
       </c>
@@ -28513,7 +28587,7 @@
         <v>10437969</v>
       </c>
     </row>
-    <row r="149" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -28701,7 +28775,7 @@
         <v>8709982</v>
       </c>
     </row>
-    <row r="150" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -28889,7 +28963,7 @@
         <v>1471281</v>
       </c>
     </row>
-    <row r="151" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -29077,7 +29151,7 @@
         <v>2353744</v>
       </c>
     </row>
-    <row r="152" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -29265,7 +29339,7 @@
         <v>764461</v>
       </c>
     </row>
-    <row r="153" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -29453,7 +29527,7 @@
         <v>4330740</v>
       </c>
     </row>
-    <row r="154" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -29641,7 +29715,7 @@
         <v>7802444</v>
       </c>
     </row>
-    <row r="155" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -29829,7 +29903,7 @@
         <v>2028265</v>
       </c>
     </row>
-    <row r="156" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -30017,7 +30091,7 @@
         <v>2684537</v>
       </c>
     </row>
-    <row r="157" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -30205,7 +30279,7 @@
         <v>5707865</v>
       </c>
     </row>
-    <row r="158" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -30393,7 +30467,7 @@
         <v>2367483</v>
       </c>
     </row>
-    <row r="159" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -30581,7 +30655,7 @@
         <v>4335940</v>
       </c>
     </row>
-    <row r="160" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -30769,7 +30843,7 @@
         <v>2465528</v>
       </c>
     </row>
-    <row r="161" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -30957,7 +31031,7 @@
         <v>3751213</v>
       </c>
     </row>
-    <row r="162" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -31145,7 +31219,7 @@
         <v>1227507</v>
       </c>
     </row>
-    <row r="163" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -31333,7 +31407,7 @@
         <v>1353442</v>
       </c>
     </row>
-    <row r="164" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -31521,7 +31595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -31709,7 +31783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -31897,7 +31971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -32085,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -32273,7 +32347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -32461,7 +32535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -32649,7 +32723,7 @@
         <v>386950</v>
       </c>
     </row>
-    <row r="171" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -32837,7 +32911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -33025,7 +33099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -33213,7 +33287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -33401,7 +33475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -33589,7 +33663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -33777,7 +33851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -33965,7 +34039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -34153,7 +34227,7 @@
         <v>544510</v>
       </c>
     </row>
-    <row r="179" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -34341,7 +34415,7 @@
         <v>5532246</v>
       </c>
     </row>
-    <row r="180" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -34529,7 +34603,7 @@
         <v>1046620</v>
       </c>
     </row>
-    <row r="181" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -34717,7 +34791,7 @@
         <v>1029202</v>
       </c>
     </row>
-    <row r="182" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -34905,7 +34979,7 @@
         <v>475239</v>
       </c>
     </row>
-    <row r="183" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -35093,7 +35167,7 @@
         <v>1711542</v>
       </c>
     </row>
-    <row r="184" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -35281,7 +35355,7 @@
         <v>313716</v>
       </c>
     </row>
-    <row r="185" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -35469,7 +35543,7 @@
         <v>1841350</v>
       </c>
     </row>
-    <row r="186" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -35657,7 +35731,7 @@
         <v>5647822</v>
       </c>
     </row>
-    <row r="187" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -35845,7 +35919,7 @@
         <v>396307</v>
       </c>
     </row>
-    <row r="188" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -36033,7 +36107,7 @@
         <v>1010802</v>
       </c>
     </row>
-    <row r="189" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -36221,7 +36295,7 @@
         <v>514791</v>
       </c>
     </row>
-    <row r="190" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -36409,7 +36483,7 @@
         <v>315078</v>
       </c>
     </row>
-    <row r="191" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -36597,7 +36671,7 @@
         <v>326074</v>
       </c>
     </row>
-    <row r="192" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -36785,7 +36859,7 @@
         <v>616981</v>
       </c>
     </row>
-    <row r="193" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -36973,7 +37047,7 @@
         <v>456591</v>
       </c>
     </row>
-    <row r="194" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>24</v>
       </c>
@@ -37161,7 +37235,7 @@
         <v>1344517</v>
       </c>
     </row>
-    <row r="195" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>24</v>
       </c>
@@ -37349,7 +37423,7 @@
         <v>8910654</v>
       </c>
     </row>
-    <row r="196" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -37537,7 +37611,7 @@
         <v>1184705</v>
       </c>
     </row>
-    <row r="197" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>24</v>
       </c>
@@ -37725,7 +37799,7 @@
         <v>907365</v>
       </c>
     </row>
-    <row r="198" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>24</v>
       </c>
@@ -37913,7 +37987,7 @@
         <v>742300</v>
       </c>
     </row>
-    <row r="199" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>24</v>
       </c>
@@ -38101,7 +38175,7 @@
         <v>1133750</v>
       </c>
     </row>
-    <row r="200" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -38289,7 +38363,7 @@
         <v>624402</v>
       </c>
     </row>
-    <row r="201" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -38477,7 +38551,7 @@
         <v>1770447</v>
       </c>
     </row>
-    <row r="202" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -38665,7 +38739,7 @@
         <v>25572279</v>
       </c>
     </row>
-    <row r="203" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -38853,7 +38927,7 @@
         <v>444275</v>
       </c>
     </row>
-    <row r="204" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -39041,7 +39115,7 @@
         <v>1246190</v>
       </c>
     </row>
-    <row r="205" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -39229,7 +39303,7 @@
         <v>989231</v>
       </c>
     </row>
-    <row r="206" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -39417,7 +39491,7 @@
         <v>562305</v>
       </c>
     </row>
-    <row r="207" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -39605,7 +39679,7 @@
         <v>1059399</v>
       </c>
     </row>
-    <row r="208" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -39793,7 +39867,7 @@
         <v>670576</v>
       </c>
     </row>
-    <row r="209" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -39981,7 +40055,7 @@
         <v>804919</v>
       </c>
     </row>
-    <row r="210" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -40169,7 +40243,7 @@
         <v>55121332</v>
       </c>
     </row>
-    <row r="211" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>25</v>
       </c>
@@ -40357,7 +40431,7 @@
         <v>392730972</v>
       </c>
     </row>
-    <row r="212" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>25</v>
       </c>
@@ -40545,7 +40619,7 @@
         <v>73187415</v>
       </c>
     </row>
-    <row r="213" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>25</v>
       </c>
@@ -40733,7 +40807,7 @@
         <v>60393466</v>
       </c>
     </row>
-    <row r="214" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>25</v>
       </c>
@@ -40921,7 +40995,7 @@
         <v>42960489</v>
       </c>
     </row>
-    <row r="215" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>25</v>
       </c>
@@ -41109,7 +41183,7 @@
         <v>74519238</v>
       </c>
     </row>
-    <row r="216" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>25</v>
       </c>
@@ -41297,7 +41371,7 @@
         <v>38870881</v>
       </c>
     </row>
-    <row r="217" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>25</v>
       </c>
@@ -41485,7 +41559,7 @@
         <v>134189742</v>
       </c>
     </row>
-    <row r="218" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -41673,7 +41747,7 @@
         <v>599239868</v>
       </c>
     </row>
-    <row r="219" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>25</v>
       </c>
@@ -41861,7 +41935,7 @@
         <v>31155609</v>
       </c>
     </row>
-    <row r="220" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>25</v>
       </c>
@@ -42049,7 +42123,7 @@
         <v>87823927</v>
       </c>
     </row>
-    <row r="221" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>25</v>
       </c>
@@ -42237,7 +42311,7 @@
         <v>39390572</v>
       </c>
     </row>
-    <row r="222" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>25</v>
       </c>
@@ -42425,7 +42499,7 @@
         <v>32642916</v>
       </c>
     </row>
-    <row r="223" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -42613,7 +42687,7 @@
         <v>34440681</v>
       </c>
     </row>
-    <row r="224" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -42801,7 +42875,7 @@
         <v>54450196</v>
       </c>
     </row>
-    <row r="225" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -42989,13 +43063,14 @@
         <v>46857513</v>
       </c>
     </row>
-    <row r="226" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:62" x14ac:dyDescent="0.3">
       <c r="BE226" s="4"/>
     </row>
-    <row r="227" spans="1:62" ht="31" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" spans="1:62" ht="30.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="B1:B226" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:B226"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/예측 코드- Python/예측 코드- Python/최종데이터.xlsx
+++ b/예측 코드- Python/예측 코드- Python/최종데이터.xlsx
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BJ23" sqref="BJ23"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1:BV1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
